--- a/output/1Y_P95_KFSDIV.xlsx
+++ b/output/1Y_P95_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>10.4058</v>
       </c>
       <c r="C2" s="1">
-        <v>10.4058</v>
+        <v>10.385</v>
       </c>
       <c r="D2" s="1">
-        <v>10.4058</v>
+        <v>10.4267</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>961.0025000000001</v>
+        <v>959.0762</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>10.2688</v>
       </c>
       <c r="C3" s="1">
-        <v>10.2688</v>
+        <v>10.2483</v>
       </c>
       <c r="D3" s="1">
-        <v>10.2688</v>
+        <v>10.2894</v>
       </c>
       <c r="E3" s="1">
-        <v>961.0025000000001</v>
+        <v>959.0762</v>
       </c>
       <c r="F3" s="1">
-        <v>973.8236000000001</v>
+        <v>971.874</v>
       </c>
       <c r="H3" s="1">
-        <v>9868.342699999999</v>
+        <v>9828.900799999999</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9868.342699999999</v>
+        <v>9828.900799999999</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.4058</v>
+        <v>10.4267</v>
       </c>
       <c r="M3" s="1">
         <v>0.1</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0132</v>
+        <v>-0.0171</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,31 +821,31 @@
         <v>10.4938</v>
       </c>
       <c r="C4" s="1">
-        <v>10.4938</v>
+        <v>10.4728</v>
       </c>
       <c r="D4" s="1">
-        <v>10.4938</v>
+        <v>10.5148</v>
       </c>
       <c r="E4" s="1">
-        <v>1934.8261</v>
+        <v>1930.9502</v>
       </c>
       <c r="F4" s="1">
-        <v>952.9435999999999</v>
+        <v>951.0404</v>
       </c>
       <c r="H4" s="1">
-        <v>20303.6785</v>
+        <v>20222.4551</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20303.6785</v>
+        <v>20222.4551</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.3368</v>
+        <v>10.3576</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0219</v>
+        <v>0.0198</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,31 +871,31 @@
         <v>10.5481</v>
       </c>
       <c r="C5" s="1">
-        <v>10.5481</v>
+        <v>10.527</v>
       </c>
       <c r="D5" s="1">
-        <v>10.5481</v>
+        <v>10.5692</v>
       </c>
       <c r="E5" s="1">
-        <v>2887.7698</v>
+        <v>2881.9906</v>
       </c>
       <c r="F5" s="1">
-        <v>948.038</v>
+        <v>946.1454</v>
       </c>
       <c r="H5" s="1">
-        <v>30460.4844</v>
+        <v>30338.7153</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>30460.4844</v>
+        <v>30338.7153</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.3886</v>
+        <v>10.4095</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0052</v>
+        <v>0.0038</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,46 +921,46 @@
         <v>10.3262</v>
       </c>
       <c r="C6" s="1">
-        <v>10.3262</v>
+        <v>10.3055</v>
       </c>
       <c r="D6" s="1">
-        <v>10.3262</v>
+        <v>10.3469</v>
       </c>
       <c r="E6" s="1">
-        <v>3835.8078</v>
+        <v>3828.136</v>
       </c>
       <c r="F6" s="1">
-        <v>968.4105</v>
+        <v>966.473</v>
       </c>
       <c r="H6" s="1">
-        <v>39609.3187</v>
+        <v>39450.8558</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>39609.3187</v>
+        <v>39450.8558</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>10.4281</v>
+        <v>10.4489</v>
       </c>
       <c r="M6" s="1">
         <v>0.25</v>
       </c>
       <c r="N6" s="1">
-        <v>649.7482</v>
+        <v>648.4479</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9350.2518</v>
+        <v>-9351.552100000001</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.021</v>
+        <v>-0.022</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,31 +971,31 @@
         <v>10.462</v>
       </c>
       <c r="C7" s="1">
-        <v>10.462</v>
+        <v>10.4411</v>
       </c>
       <c r="D7" s="1">
-        <v>10.462</v>
+        <v>10.483</v>
       </c>
       <c r="E7" s="1">
-        <v>4804.2183</v>
+        <v>4794.6091</v>
       </c>
       <c r="F7" s="1">
-        <v>964.7124</v>
+        <v>962.7621</v>
       </c>
       <c r="H7" s="1">
-        <v>50261.7315</v>
+        <v>50060.9928</v>
       </c>
       <c r="I7" s="1">
-        <v>649.7482</v>
+        <v>648.4479</v>
       </c>
       <c r="J7" s="1">
-        <v>50911.4797</v>
+        <v>50709.4407</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>10.4075</v>
+        <v>10.4284</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10092.8212</v>
+        <v>-10092.6354</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0262</v>
+        <v>0.0255</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,31 +1021,31 @@
         <v>10.5775</v>
       </c>
       <c r="C8" s="1">
-        <v>10.5775</v>
+        <v>10.5563</v>
       </c>
       <c r="D8" s="1">
-        <v>10.5775</v>
+        <v>10.5987</v>
       </c>
       <c r="E8" s="1">
-        <v>5768.9307</v>
+        <v>5757.3712</v>
       </c>
       <c r="F8" s="1">
-        <v>954.1783</v>
+        <v>952.2522</v>
       </c>
       <c r="H8" s="1">
-        <v>61020.8642</v>
+        <v>60776.5377</v>
       </c>
       <c r="I8" s="1">
-        <v>556.927</v>
+        <v>555.8125</v>
       </c>
       <c r="J8" s="1">
-        <v>61577.7912</v>
+        <v>61332.3502</v>
       </c>
       <c r="K8" s="1">
-        <v>60092.8212</v>
+        <v>60092.6354</v>
       </c>
       <c r="L8" s="1">
-        <v>10.4166</v>
+        <v>10.4375</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10092.8212</v>
+        <v>-10092.6354</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0109</v>
+        <v>0.0103</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,46 +1071,46 @@
         <v>10.7066</v>
       </c>
       <c r="C9" s="1">
-        <v>10.7066</v>
+        <v>10.6852</v>
       </c>
       <c r="D9" s="1">
-        <v>10.7066</v>
+        <v>10.7281</v>
       </c>
       <c r="E9" s="1">
-        <v>6723.109</v>
+        <v>6709.6234</v>
       </c>
       <c r="F9" s="1">
-        <v>942.6729</v>
+        <v>940.7663</v>
       </c>
       <c r="H9" s="1">
-        <v>71981.6387</v>
+        <v>71693.6681</v>
       </c>
       <c r="I9" s="1">
-        <v>464.1059</v>
+        <v>463.1771</v>
       </c>
       <c r="J9" s="1">
-        <v>72445.74460000001</v>
+        <v>72156.84510000001</v>
       </c>
       <c r="K9" s="1">
-        <v>70185.64230000001</v>
+        <v>70185.2708</v>
       </c>
       <c r="L9" s="1">
-        <v>10.4395</v>
+        <v>10.4604</v>
       </c>
       <c r="M9" s="1">
         <v>0.2</v>
       </c>
       <c r="N9" s="1">
-        <v>1038.4075</v>
+        <v>1036.3268</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-9054.413699999999</v>
+        <v>-9056.3086</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0121</v>
+        <v>0.0116</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,31 +1121,31 @@
         <v>11.1511</v>
       </c>
       <c r="C10" s="1">
-        <v>11.1511</v>
+        <v>11.1288</v>
       </c>
       <c r="D10" s="1">
-        <v>11.1511</v>
+        <v>11.1735</v>
       </c>
       <c r="E10" s="1">
-        <v>7665.7818</v>
+        <v>7650.3898</v>
       </c>
       <c r="F10" s="1">
-        <v>928.3768</v>
+        <v>926.4525</v>
       </c>
       <c r="H10" s="1">
-        <v>85481.8999</v>
+        <v>85139.6575</v>
       </c>
       <c r="I10" s="1">
-        <v>1409.6922</v>
+        <v>1406.8685</v>
       </c>
       <c r="J10" s="1">
-        <v>86891.59209999999</v>
+        <v>86546.526</v>
       </c>
       <c r="K10" s="1">
-        <v>80278.4635</v>
+        <v>80277.9062</v>
       </c>
       <c r="L10" s="1">
-        <v>10.4723</v>
+        <v>10.4933</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10352.4231</v>
+        <v>-10351.7171</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0539</v>
+        <v>0.0534</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,31 +1171,31 @@
         <v>11.5294</v>
       </c>
       <c r="C11" s="1">
-        <v>11.5294</v>
+        <v>11.5063</v>
       </c>
       <c r="D11" s="1">
-        <v>11.5295</v>
+        <v>11.5525</v>
       </c>
       <c r="E11" s="1">
-        <v>8594.1587</v>
+        <v>8576.8423</v>
       </c>
       <c r="F11" s="1">
-        <v>897.9074000000001</v>
+        <v>896.0586</v>
       </c>
       <c r="H11" s="1">
-        <v>99085.4932</v>
+        <v>98687.72010000001</v>
       </c>
       <c r="I11" s="1">
-        <v>1057.2692</v>
+        <v>1055.1514</v>
       </c>
       <c r="J11" s="1">
-        <v>100142.7624</v>
+        <v>99742.87149999999</v>
       </c>
       <c r="K11" s="1">
-        <v>90630.8866</v>
+        <v>90629.6234</v>
       </c>
       <c r="L11" s="1">
-        <v>10.5456</v>
+        <v>10.5668</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10352.4231</v>
+        <v>-10351.7171</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0336</v>
+        <v>0.0331</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,46 +1221,46 @@
         <v>10.9136</v>
       </c>
       <c r="C12" s="1">
-        <v>10.9136</v>
+        <v>10.8918</v>
       </c>
       <c r="D12" s="1">
-        <v>10.9136</v>
+        <v>10.9355</v>
       </c>
       <c r="E12" s="1">
-        <v>9492.0661</v>
+        <v>9472.900900000001</v>
       </c>
       <c r="F12" s="1">
-        <v>948.58</v>
+        <v>946.6158</v>
       </c>
       <c r="H12" s="1">
-        <v>103592.6122</v>
+        <v>103176.9418</v>
       </c>
       <c r="I12" s="1">
-        <v>704.8461</v>
+        <v>703.4342</v>
       </c>
       <c r="J12" s="1">
-        <v>104297.4583</v>
+        <v>103880.376</v>
       </c>
       <c r="K12" s="1">
-        <v>100983.3096</v>
+        <v>100981.3405</v>
       </c>
       <c r="L12" s="1">
-        <v>10.6387</v>
+        <v>10.66</v>
       </c>
       <c r="M12" s="1">
         <v>0.5</v>
       </c>
       <c r="N12" s="1">
-        <v>3867.3714</v>
+        <v>3859.579</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-6485.0516</v>
+        <v>-6492.1381</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0531</v>
+        <v>-0.0534</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,31 +1271,31 @@
         <v>11.2587</v>
       </c>
       <c r="C13" s="1">
-        <v>11.2586</v>
+        <v>11.2362</v>
       </c>
       <c r="D13" s="1">
-        <v>11.2587</v>
+        <v>11.2813</v>
       </c>
       <c r="E13" s="1">
-        <v>10440.6461</v>
+        <v>10419.5167</v>
       </c>
       <c r="F13" s="1">
-        <v>1263.005</v>
+        <v>1259.7215</v>
       </c>
       <c r="H13" s="1">
-        <v>117547.0581</v>
+        <v>117075.7733</v>
       </c>
       <c r="I13" s="1">
-        <v>4219.7945</v>
+        <v>4211.2961</v>
       </c>
       <c r="J13" s="1">
-        <v>121766.8526</v>
+        <v>121287.0694</v>
       </c>
       <c r="K13" s="1">
-        <v>111335.7327</v>
+        <v>111333.0576</v>
       </c>
       <c r="L13" s="1">
-        <v>10.6637</v>
+        <v>10.6851</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-14219.7945</v>
+        <v>-14211.2961</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0654</v>
+        <v>0.065</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,31 +1321,31 @@
         <v>11.6434</v>
       </c>
       <c r="C14" s="1">
-        <v>11.6434</v>
+        <v>11.6201</v>
       </c>
       <c r="D14" s="1">
-        <v>11.6434</v>
+        <v>11.6667</v>
       </c>
       <c r="E14" s="1">
-        <v>11703.6511</v>
+        <v>11679.2382</v>
       </c>
       <c r="F14" s="1">
-        <v>-11703.6511</v>
+        <v>-11679.2382</v>
       </c>
       <c r="H14" s="1">
-        <v>136270.2913</v>
+        <v>135713.9155</v>
       </c>
       <c r="I14" s="1">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>136270.2913</v>
+        <v>135713.9155</v>
       </c>
       <c r="K14" s="1">
-        <v>125555.5271</v>
+        <v>125544.3537</v>
       </c>
       <c r="L14" s="1">
-        <v>10.7279</v>
+        <v>10.7494</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>136270.2913</v>
+        <v>135713.9155</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0342</v>
+        <v>0.0337</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>10.4058</v>
       </c>
       <c r="C2" s="1">
-        <v>10.4058</v>
+        <v>10.385</v>
       </c>
       <c r="D2" s="1">
-        <v>10.4058</v>
+        <v>10.4267</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>961.0025000000001</v>
+        <v>959.0762</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>10.2688</v>
       </c>
       <c r="C3" s="1">
-        <v>10.2688</v>
+        <v>10.2483</v>
       </c>
       <c r="D3" s="1">
-        <v>10.2688</v>
+        <v>10.2894</v>
       </c>
       <c r="E3" s="1">
-        <v>961.0025000000001</v>
+        <v>959.0762</v>
       </c>
       <c r="F3" s="1">
-        <v>973.8236000000001</v>
+        <v>971.874</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>9868.342699999999</v>
+        <v>9828.900799999999</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9868.342699999999</v>
+        <v>9828.900799999999</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.4058</v>
+        <v>10.4267</v>
       </c>
       <c r="M3" s="1">
         <v>0.1</v>
@@ -1545,7 +1545,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0132</v>
+        <v>-0.0171</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,34 +1556,34 @@
         <v>10.4938</v>
       </c>
       <c r="C4" s="1">
-        <v>10.4938</v>
+        <v>10.4728</v>
       </c>
       <c r="D4" s="1">
-        <v>10.4938</v>
+        <v>10.5148</v>
       </c>
       <c r="E4" s="1">
-        <v>1934.8261</v>
+        <v>1930.9502</v>
       </c>
       <c r="F4" s="1">
-        <v>924.0048</v>
+        <v>933.6133</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>20303.6785</v>
+        <v>20222.4551</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20303.6785</v>
+        <v>20222.4551</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.3368</v>
+        <v>10.3576</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1595,10 +1595,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9696.3215</v>
+        <v>-9816.7567</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0219</v>
+        <v>0.0198</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,34 +1609,34 @@
         <v>10.5481</v>
       </c>
       <c r="C5" s="1">
-        <v>10.5481</v>
+        <v>10.527</v>
       </c>
       <c r="D5" s="1">
-        <v>10.5481</v>
+        <v>10.5692</v>
       </c>
       <c r="E5" s="1">
-        <v>2858.8309</v>
+        <v>2864.5634</v>
       </c>
       <c r="F5" s="1">
-        <v>933.3212</v>
+        <v>935.1896</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>30155.2345</v>
+        <v>30155.2593</v>
       </c>
       <c r="I5" s="1">
-        <v>303.6785</v>
+        <v>183.2433</v>
       </c>
       <c r="J5" s="1">
-        <v>30458.9131</v>
+        <v>30338.5027</v>
       </c>
       <c r="K5" s="1">
-        <v>29696.3215</v>
+        <v>29816.7567</v>
       </c>
       <c r="L5" s="1">
-        <v>10.3876</v>
+        <v>10.4088</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9844.7655</v>
+        <v>-9884.2057</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0051</v>
+        <v>0.0038</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,49 +1662,49 @@
         <v>10.3262</v>
       </c>
       <c r="C6" s="1">
-        <v>10.3262</v>
+        <v>10.3055</v>
       </c>
       <c r="D6" s="1">
-        <v>10.3262</v>
+        <v>10.3469</v>
       </c>
       <c r="E6" s="1">
-        <v>3792.1521</v>
+        <v>3799.753</v>
       </c>
       <c r="F6" s="1">
-        <v>1012.8521</v>
+        <v>995.3742</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>39158.5214</v>
+        <v>39158.3547</v>
       </c>
       <c r="I6" s="1">
-        <v>458.9131</v>
+        <v>299.0377</v>
       </c>
       <c r="J6" s="1">
-        <v>39617.4345</v>
+        <v>39457.3924</v>
       </c>
       <c r="K6" s="1">
-        <v>39541.0869</v>
+        <v>39700.9623</v>
       </c>
       <c r="L6" s="1">
-        <v>10.4271</v>
+        <v>10.4483</v>
       </c>
       <c r="M6" s="1">
         <v>0.25</v>
       </c>
       <c r="N6" s="1">
-        <v>643.237</v>
+        <v>644.5268</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9815.676100000001</v>
+        <v>-9654.510899999999</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0208</v>
+        <v>-0.0218</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,34 +1715,34 @@
         <v>10.462</v>
       </c>
       <c r="C7" s="1">
-        <v>10.462</v>
+        <v>10.4411</v>
       </c>
       <c r="D7" s="1">
-        <v>10.462</v>
+        <v>10.483</v>
       </c>
       <c r="E7" s="1">
-        <v>4805.0042</v>
+        <v>4795.1273</v>
       </c>
       <c r="F7" s="1">
-        <v>930.0368999999999</v>
+        <v>951.3937</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>50269.9541</v>
+        <v>50066.4031</v>
       </c>
       <c r="I7" s="1">
-        <v>643.237</v>
+        <v>644.5268</v>
       </c>
       <c r="J7" s="1">
-        <v>50913.191</v>
+        <v>50710.9299</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>10.4058</v>
+        <v>10.4273</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1754,10 +1754,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9730.045899999999</v>
+        <v>-9973.4602</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0261</v>
+        <v>0.0253</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,34 +1768,34 @@
         <v>10.5775</v>
       </c>
       <c r="C8" s="1">
-        <v>10.5775</v>
+        <v>10.5563</v>
       </c>
       <c r="D8" s="1">
-        <v>10.5775</v>
+        <v>10.5987</v>
       </c>
       <c r="E8" s="1">
-        <v>5735.0411</v>
+        <v>5746.521</v>
       </c>
       <c r="F8" s="1">
-        <v>882.7797</v>
+        <v>884.5903</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>60662.3972</v>
+        <v>60661.9992</v>
       </c>
       <c r="I8" s="1">
-        <v>913.191</v>
+        <v>671.0665</v>
       </c>
       <c r="J8" s="1">
-        <v>61575.5883</v>
+        <v>61333.0657</v>
       </c>
       <c r="K8" s="1">
-        <v>59730.0459</v>
+        <v>59973.4602</v>
       </c>
       <c r="L8" s="1">
-        <v>10.4149</v>
+        <v>10.4365</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-9337.602800000001</v>
+        <v>-9375.5074</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0109</v>
+        <v>0.0102</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,49 +1821,49 @@
         <v>10.7066</v>
       </c>
       <c r="C9" s="1">
-        <v>10.7066</v>
+        <v>10.6852</v>
       </c>
       <c r="D9" s="1">
-        <v>10.7066</v>
+        <v>10.7281</v>
       </c>
       <c r="E9" s="1">
-        <v>6617.8208</v>
+        <v>6631.1113</v>
       </c>
       <c r="F9" s="1">
-        <v>854.2058</v>
+        <v>855.8801</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>70854.3607</v>
+        <v>70854.75019999999</v>
       </c>
       <c r="I9" s="1">
-        <v>1575.5883</v>
+        <v>1295.5591</v>
       </c>
       <c r="J9" s="1">
-        <v>72429.9489</v>
+        <v>72150.3094</v>
       </c>
       <c r="K9" s="1">
-        <v>69067.64870000001</v>
+        <v>69348.96769999999</v>
       </c>
       <c r="L9" s="1">
-        <v>10.4366</v>
+        <v>10.4581</v>
       </c>
       <c r="M9" s="1">
         <v>0.2</v>
       </c>
       <c r="N9" s="1">
-        <v>1032.3074</v>
+        <v>1034.3738</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8113.3319</v>
+        <v>-8147.5932</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0119</v>
+        <v>0.0115</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,34 +1874,34 @@
         <v>11.1511</v>
       </c>
       <c r="C10" s="1">
-        <v>11.1511</v>
+        <v>11.1288</v>
       </c>
       <c r="D10" s="1">
-        <v>11.1511</v>
+        <v>11.1735</v>
       </c>
       <c r="E10" s="1">
-        <v>7472.0266</v>
+        <v>7486.9914</v>
       </c>
       <c r="F10" s="1">
-        <v>598.926</v>
+        <v>600.1339</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>83321.3158</v>
+        <v>83321.2294</v>
       </c>
       <c r="I10" s="1">
-        <v>3462.2563</v>
+        <v>3147.9659</v>
       </c>
       <c r="J10" s="1">
-        <v>86783.5722</v>
+        <v>86469.1952</v>
       </c>
       <c r="K10" s="1">
-        <v>78213.288</v>
+        <v>78530.9347</v>
       </c>
       <c r="L10" s="1">
-        <v>10.4675</v>
+        <v>10.489</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-6678.6842</v>
+        <v>-6705.5966</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0528</v>
+        <v>0.0526</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,34 +1927,34 @@
         <v>11.5294</v>
       </c>
       <c r="C11" s="1">
-        <v>11.5294</v>
+        <v>11.5063</v>
       </c>
       <c r="D11" s="1">
-        <v>11.5295</v>
+        <v>11.5525</v>
       </c>
       <c r="E11" s="1">
-        <v>8070.9526</v>
+        <v>8087.1253</v>
       </c>
       <c r="F11" s="1">
-        <v>602.5256000000001</v>
+        <v>603.7658</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>93053.2414</v>
+        <v>93052.8898</v>
       </c>
       <c r="I11" s="1">
-        <v>6783.5722</v>
+        <v>6442.3693</v>
       </c>
       <c r="J11" s="1">
-        <v>99836.81359999999</v>
+        <v>99495.2591</v>
       </c>
       <c r="K11" s="1">
-        <v>84891.9722</v>
+        <v>85236.5313</v>
       </c>
       <c r="L11" s="1">
-        <v>10.5182</v>
+        <v>10.5398</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1966,10 +1966,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-6946.8189</v>
+        <v>-6975.0042</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0315</v>
+        <v>0.0314</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,49 +1980,49 @@
         <v>10.9136</v>
       </c>
       <c r="C12" s="1">
-        <v>10.9136</v>
+        <v>10.8918</v>
       </c>
       <c r="D12" s="1">
-        <v>10.9136</v>
+        <v>10.9355</v>
       </c>
       <c r="E12" s="1">
-        <v>8673.4782</v>
+        <v>8690.891100000001</v>
       </c>
       <c r="F12" s="1">
-        <v>1405.689</v>
+        <v>1408.4497</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>94658.87209999999</v>
+        <v>94659.4474</v>
       </c>
       <c r="I12" s="1">
-        <v>9836.7533</v>
+        <v>9467.365100000001</v>
       </c>
       <c r="J12" s="1">
-        <v>104495.6254</v>
+        <v>104126.8125</v>
       </c>
       <c r="K12" s="1">
-        <v>91838.7911</v>
+        <v>92211.5355</v>
       </c>
       <c r="L12" s="1">
-        <v>10.5885</v>
+        <v>10.6101</v>
       </c>
       <c r="M12" s="1">
         <v>0.5</v>
       </c>
       <c r="N12" s="1">
-        <v>3631.9287</v>
+        <v>3639.2064</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11709.1992</v>
+        <v>-11762.8954</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0486</v>
+        <v>-0.049</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,34 +2033,34 @@
         <v>11.2587</v>
       </c>
       <c r="C13" s="1">
-        <v>11.2586</v>
+        <v>11.2362</v>
       </c>
       <c r="D13" s="1">
-        <v>11.2587</v>
+        <v>11.2813</v>
       </c>
       <c r="E13" s="1">
-        <v>10079.1673</v>
+        <v>10099.3408</v>
       </c>
       <c r="F13" s="1">
-        <v>579.3515</v>
+        <v>580.4263999999999</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>113477.3127</v>
+        <v>113478.213</v>
       </c>
       <c r="I13" s="1">
-        <v>8127.5541</v>
+        <v>7704.4696</v>
       </c>
       <c r="J13" s="1">
-        <v>121604.8668</v>
+        <v>121182.6826</v>
       </c>
       <c r="K13" s="1">
-        <v>107179.919</v>
+        <v>107613.6373</v>
       </c>
       <c r="L13" s="1">
-        <v>10.6338</v>
+        <v>10.6555</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2072,10 +2072,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-6522.7452</v>
+        <v>-6547.9643</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0621</v>
+        <v>0.0618</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,34 +2086,34 @@
         <v>11.6434</v>
       </c>
       <c r="C14" s="1">
-        <v>11.6434</v>
+        <v>11.6201</v>
       </c>
       <c r="D14" s="1">
-        <v>11.6434</v>
+        <v>11.6667</v>
       </c>
       <c r="E14" s="1">
-        <v>10658.5188</v>
+        <v>10679.7672</v>
       </c>
       <c r="F14" s="1">
-        <v>-10658.5188</v>
+        <v>-10679.7672</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>124101.398</v>
+        <v>124099.9626</v>
       </c>
       <c r="I14" s="1">
-        <v>11604.8089</v>
+        <v>11156.5054</v>
       </c>
       <c r="J14" s="1">
-        <v>135706.2069</v>
+        <v>135256.468</v>
       </c>
       <c r="K14" s="1">
-        <v>113702.6642</v>
+        <v>114161.6016</v>
       </c>
       <c r="L14" s="1">
-        <v>10.6678</v>
+        <v>10.6895</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>124101.398</v>
+        <v>124099.9626</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0312</v>
+        <v>0.0311</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>10.4058</v>
       </c>
       <c r="C2" s="1">
-        <v>10.4058</v>
+        <v>10.385</v>
       </c>
       <c r="D2" s="1">
-        <v>10.4058</v>
+        <v>10.4267</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>961.0025000000001</v>
+        <v>959.0762</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>10.2688</v>
       </c>
       <c r="C3" s="1">
-        <v>10.2688</v>
+        <v>10.2483</v>
       </c>
       <c r="D3" s="1">
-        <v>10.2688</v>
+        <v>10.2894</v>
       </c>
       <c r="E3" s="1">
-        <v>961.0025000000001</v>
+        <v>959.0762</v>
       </c>
       <c r="F3" s="1">
-        <v>973.8236000000001</v>
+        <v>971.874</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>9868.342699999999</v>
+        <v>9828.900799999999</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9868.342699999999</v>
+        <v>9828.900799999999</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.4058</v>
+        <v>10.4267</v>
       </c>
       <c r="M3" s="1">
         <v>0.1</v>
@@ -2313,7 +2313,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0132</v>
+        <v>-0.0171</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,34 +2324,34 @@
         <v>10.4938</v>
       </c>
       <c r="C4" s="1">
-        <v>10.4938</v>
+        <v>10.4728</v>
       </c>
       <c r="D4" s="1">
-        <v>10.4938</v>
+        <v>10.5148</v>
       </c>
       <c r="E4" s="1">
-        <v>1934.8261</v>
+        <v>1930.9502</v>
       </c>
       <c r="F4" s="1">
-        <v>938.3228</v>
+        <v>947.9598999999999</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>20303.6785</v>
+        <v>20222.4551</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20303.6785</v>
+        <v>20222.4551</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.3368</v>
+        <v>10.3576</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2363,10 +2363,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9846.5715</v>
+        <v>-9967.609200000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0219</v>
+        <v>0.0198</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,34 +2377,34 @@
         <v>10.5481</v>
       </c>
       <c r="C5" s="1">
-        <v>10.5481</v>
+        <v>10.527</v>
       </c>
       <c r="D5" s="1">
-        <v>10.5481</v>
+        <v>10.5692</v>
       </c>
       <c r="E5" s="1">
-        <v>2873.1489</v>
+        <v>2878.9101</v>
       </c>
       <c r="F5" s="1">
-        <v>947.5393</v>
+        <v>949.4361</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>30306.262</v>
+        <v>30306.2869</v>
       </c>
       <c r="I5" s="1">
-        <v>153.4285</v>
+        <v>32.3908</v>
       </c>
       <c r="J5" s="1">
-        <v>30459.6905</v>
+        <v>30338.6777</v>
       </c>
       <c r="K5" s="1">
-        <v>29846.5715</v>
+        <v>29967.6092</v>
       </c>
       <c r="L5" s="1">
-        <v>10.3881</v>
+        <v>10.4094</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -2416,10 +2416,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9994.739299999999</v>
+        <v>-10034.7805</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0051</v>
+        <v>0.0038</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,49 +2430,49 @@
         <v>10.3262</v>
       </c>
       <c r="C6" s="1">
-        <v>10.3262</v>
+        <v>10.3055</v>
       </c>
       <c r="D6" s="1">
-        <v>10.3262</v>
+        <v>10.3469</v>
       </c>
       <c r="E6" s="1">
-        <v>3820.6882</v>
+        <v>3828.3463</v>
       </c>
       <c r="F6" s="1">
-        <v>983.7781</v>
+        <v>966.2421000000001</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>39453.1905</v>
+        <v>39453.0225</v>
       </c>
       <c r="I6" s="1">
-        <v>158.6893</v>
+        <v>-2.3897</v>
       </c>
       <c r="J6" s="1">
-        <v>39611.8798</v>
+        <v>39450.6328</v>
       </c>
       <c r="K6" s="1">
-        <v>39841.3107</v>
+        <v>40002.3897</v>
       </c>
       <c r="L6" s="1">
-        <v>10.4278</v>
+        <v>10.449</v>
       </c>
       <c r="M6" s="1">
         <v>0.25</v>
       </c>
       <c r="N6" s="1">
-        <v>646.4585</v>
+        <v>647.7548</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9512.230799999999</v>
+        <v>-9349.8555</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.021</v>
+        <v>-0.022</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,34 +2483,34 @@
         <v>10.462</v>
       </c>
       <c r="C7" s="1">
-        <v>10.462</v>
+        <v>10.4411</v>
       </c>
       <c r="D7" s="1">
-        <v>10.462</v>
+        <v>10.483</v>
       </c>
       <c r="E7" s="1">
-        <v>4804.4663</v>
+        <v>4794.5884</v>
       </c>
       <c r="F7" s="1">
-        <v>1002.7425</v>
+        <v>1015.7164</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>50264.3263</v>
+        <v>50060.7766</v>
       </c>
       <c r="I7" s="1">
-        <v>646.4585</v>
+        <v>647.7548</v>
       </c>
       <c r="J7" s="1">
-        <v>50910.7848</v>
+        <v>50708.5313</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>10.407</v>
+        <v>10.4284</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2522,10 +2522,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10490.6925</v>
+        <v>-10647.7548</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0262</v>
+        <v>0.0254</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,34 +2536,34 @@
         <v>10.5775</v>
       </c>
       <c r="C8" s="1">
-        <v>10.5775</v>
+        <v>10.5563</v>
       </c>
       <c r="D8" s="1">
-        <v>10.5775</v>
+        <v>10.5987</v>
       </c>
       <c r="E8" s="1">
-        <v>5807.2088</v>
+        <v>5810.3047</v>
       </c>
       <c r="F8" s="1">
-        <v>910.7107</v>
+        <v>921.1063</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>61425.7514</v>
+        <v>61335.3199</v>
       </c>
       <c r="I8" s="1">
-        <v>155.766</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>61581.5175</v>
+        <v>61335.3199</v>
       </c>
       <c r="K8" s="1">
-        <v>60490.6925</v>
+        <v>60647.7548</v>
       </c>
       <c r="L8" s="1">
-        <v>10.4165</v>
+        <v>10.438</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-9633.0425</v>
+        <v>-9762.528899999999</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.011</v>
+        <v>0.0103</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,49 +2589,49 @@
         <v>10.7066</v>
       </c>
       <c r="C9" s="1">
-        <v>10.7066</v>
+        <v>10.6852</v>
       </c>
       <c r="D9" s="1">
-        <v>10.7066</v>
+        <v>10.7281</v>
       </c>
       <c r="E9" s="1">
-        <v>6717.9195</v>
+        <v>6731.411</v>
       </c>
       <c r="F9" s="1">
-        <v>886.1833</v>
+        <v>887.9212</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>71926.0773</v>
+        <v>71926.4728</v>
       </c>
       <c r="I9" s="1">
-        <v>522.7236</v>
+        <v>237.4711</v>
       </c>
       <c r="J9" s="1">
-        <v>72448.8009</v>
+        <v>72163.9439</v>
       </c>
       <c r="K9" s="1">
-        <v>70123.7349</v>
+        <v>70410.2836</v>
       </c>
       <c r="L9" s="1">
-        <v>10.4383</v>
+        <v>10.46</v>
       </c>
       <c r="M9" s="1">
         <v>0.2</v>
       </c>
       <c r="N9" s="1">
-        <v>1045.2976</v>
+        <v>1045.8549</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8442.713</v>
+        <v>-8479.8521</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0121</v>
+        <v>0.0116</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,34 +2642,34 @@
         <v>11.1511</v>
       </c>
       <c r="C10" s="1">
-        <v>11.1511</v>
+        <v>11.1288</v>
       </c>
       <c r="D10" s="1">
-        <v>11.1511</v>
+        <v>11.1735</v>
       </c>
       <c r="E10" s="1">
-        <v>7604.1029</v>
+        <v>7619.3321</v>
       </c>
       <c r="F10" s="1">
-        <v>630.1662</v>
+        <v>631.4369</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>84794.1116</v>
+        <v>84794.0236</v>
       </c>
       <c r="I10" s="1">
-        <v>2080.0106</v>
+        <v>1757.6191</v>
       </c>
       <c r="J10" s="1">
-        <v>86874.1222</v>
+        <v>86551.6427</v>
       </c>
       <c r="K10" s="1">
-        <v>79611.7455</v>
+        <v>79935.9905</v>
       </c>
       <c r="L10" s="1">
-        <v>10.4696</v>
+        <v>10.4912</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-7027.0467</v>
+        <v>-7055.3599</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0537</v>
+        <v>0.0534</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,34 +2695,34 @@
         <v>11.5294</v>
       </c>
       <c r="C11" s="1">
-        <v>11.5294</v>
+        <v>11.5063</v>
       </c>
       <c r="D11" s="1">
-        <v>11.5295</v>
+        <v>11.5525</v>
       </c>
       <c r="E11" s="1">
-        <v>8234.2691</v>
+        <v>8250.769</v>
       </c>
       <c r="F11" s="1">
-        <v>636.9873</v>
+        <v>638.2973</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>94936.1823</v>
+        <v>94935.8236</v>
       </c>
       <c r="I11" s="1">
-        <v>5052.9639</v>
+        <v>4702.2592</v>
       </c>
       <c r="J11" s="1">
-        <v>99989.1462</v>
+        <v>99638.0828</v>
       </c>
       <c r="K11" s="1">
-        <v>86638.7922</v>
+        <v>86991.3505</v>
       </c>
       <c r="L11" s="1">
-        <v>10.5217</v>
+        <v>10.5434</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -2734,10 +2734,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-7344.1455</v>
+        <v>-7373.9298</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0322</v>
+        <v>0.032</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,49 +2748,49 @@
         <v>10.9136</v>
       </c>
       <c r="C12" s="1">
-        <v>10.9136</v>
+        <v>10.8918</v>
       </c>
       <c r="D12" s="1">
-        <v>10.9136</v>
+        <v>10.9355</v>
       </c>
       <c r="E12" s="1">
-        <v>8871.2564</v>
+        <v>8889.0663</v>
       </c>
       <c r="F12" s="1">
-        <v>1463.7078</v>
+        <v>1466.5834</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>96817.3444</v>
+        <v>96817.9328</v>
       </c>
       <c r="I12" s="1">
-        <v>7708.8184</v>
+        <v>7328.3293</v>
       </c>
       <c r="J12" s="1">
-        <v>104526.1628</v>
+        <v>104146.2622</v>
       </c>
       <c r="K12" s="1">
-        <v>93982.93769999999</v>
+        <v>94365.2803</v>
       </c>
       <c r="L12" s="1">
-        <v>10.5941</v>
+        <v>10.6159</v>
       </c>
       <c r="M12" s="1">
         <v>0.5</v>
       </c>
       <c r="N12" s="1">
-        <v>3705.4211</v>
+        <v>3712.8461</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-12268.8999</v>
+        <v>-12324.9762</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0497</v>
+        <v>-0.0501</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,34 +2801,34 @@
         <v>11.2587</v>
       </c>
       <c r="C13" s="1">
-        <v>11.2586</v>
+        <v>11.2362</v>
       </c>
       <c r="D13" s="1">
-        <v>11.2587</v>
+        <v>11.2813</v>
       </c>
       <c r="E13" s="1">
-        <v>10334.9642</v>
+        <v>10355.6497</v>
       </c>
       <c r="F13" s="1">
-        <v>621.6044000000001</v>
+        <v>622.7615</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>116357.2281</v>
+        <v>116358.1512</v>
       </c>
       <c r="I13" s="1">
-        <v>5439.9185</v>
+        <v>5003.3531</v>
       </c>
       <c r="J13" s="1">
-        <v>121797.1465</v>
+        <v>121361.5043</v>
       </c>
       <c r="K13" s="1">
-        <v>109957.2587</v>
+        <v>110403.1026</v>
       </c>
       <c r="L13" s="1">
-        <v>10.6393</v>
+        <v>10.6611</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-6998.4578</v>
+        <v>-7025.5591</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0635</v>
+        <v>0.06320000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,34 +2854,34 @@
         <v>11.6434</v>
       </c>
       <c r="C14" s="1">
-        <v>11.6434</v>
+        <v>11.6201</v>
       </c>
       <c r="D14" s="1">
-        <v>11.6434</v>
+        <v>11.6667</v>
       </c>
       <c r="E14" s="1">
-        <v>10956.5686</v>
+        <v>10978.4112</v>
       </c>
       <c r="F14" s="1">
-        <v>-10956.5686</v>
+        <v>-10978.4112</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>127571.7113</v>
+        <v>127570.2358</v>
       </c>
       <c r="I14" s="1">
-        <v>8441.4606</v>
+        <v>7977.794</v>
       </c>
       <c r="J14" s="1">
-        <v>136013.172</v>
+        <v>135548.0298</v>
       </c>
       <c r="K14" s="1">
-        <v>116955.7166</v>
+        <v>117428.6617</v>
       </c>
       <c r="L14" s="1">
-        <v>10.6745</v>
+        <v>10.6963</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2893,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>127571.7113</v>
+        <v>127570.2358</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.032</v>
+        <v>0.0319</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>10.4058</v>
       </c>
       <c r="C2" s="1">
-        <v>10.4058</v>
+        <v>10.385</v>
       </c>
       <c r="D2" s="1">
-        <v>10.4058</v>
+        <v>10.4267</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>961.0025000000001</v>
+        <v>959.0762</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>10.2688</v>
       </c>
       <c r="C3" s="1">
-        <v>10.2688</v>
+        <v>10.2483</v>
       </c>
       <c r="D3" s="1">
-        <v>10.2688</v>
+        <v>10.2894</v>
       </c>
       <c r="E3" s="1">
-        <v>961.0025000000001</v>
+        <v>959.0762</v>
       </c>
       <c r="F3" s="1">
-        <v>973.8236000000001</v>
+        <v>971.874</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>9868.342699999999</v>
+        <v>9828.900799999999</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9868.342699999999</v>
+        <v>9828.900799999999</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.4058</v>
+        <v>10.4267</v>
       </c>
       <c r="M3" s="1">
         <v>0.1</v>
@@ -3081,7 +3081,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0132</v>
+        <v>-0.0171</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,34 +3092,34 @@
         <v>10.4938</v>
       </c>
       <c r="C4" s="1">
-        <v>10.4938</v>
+        <v>10.4728</v>
       </c>
       <c r="D4" s="1">
-        <v>10.4938</v>
+        <v>10.5148</v>
       </c>
       <c r="E4" s="1">
-        <v>1934.8261</v>
+        <v>1930.9502</v>
       </c>
       <c r="F4" s="1">
-        <v>952.6884</v>
+        <v>951.0404</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>20303.6785</v>
+        <v>20222.4551</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20303.6785</v>
+        <v>20222.4551</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.3368</v>
+        <v>10.3576</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3131,10 +3131,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9997.3215</v>
+        <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0219</v>
+        <v>0.0198</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,34 +3145,34 @@
         <v>10.5481</v>
       </c>
       <c r="C5" s="1">
-        <v>10.5481</v>
+        <v>10.527</v>
       </c>
       <c r="D5" s="1">
-        <v>10.5481</v>
+        <v>10.5692</v>
       </c>
       <c r="E5" s="1">
-        <v>2887.5145</v>
+        <v>2881.9906</v>
       </c>
       <c r="F5" s="1">
-        <v>948.292</v>
+        <v>946.1454</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>30457.792</v>
+        <v>30338.7153</v>
       </c>
       <c r="I5" s="1">
-        <v>2.6785</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>30460.4706</v>
+        <v>30338.7153</v>
       </c>
       <c r="K5" s="1">
-        <v>29997.3215</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.3886</v>
+        <v>10.4095</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3184,10 +3184,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10002.6785</v>
+        <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0052</v>
+        <v>0.0038</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,49 +3198,49 @@
         <v>10.3262</v>
       </c>
       <c r="C6" s="1">
-        <v>10.3262</v>
+        <v>10.3055</v>
       </c>
       <c r="D6" s="1">
-        <v>10.3262</v>
+        <v>10.3469</v>
       </c>
       <c r="E6" s="1">
-        <v>3835.8065</v>
+        <v>3828.136</v>
       </c>
       <c r="F6" s="1">
-        <v>968.4105</v>
+        <v>966.473</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>39609.3051</v>
+        <v>39450.8558</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>39609.3051</v>
+        <v>39450.8558</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>10.4281</v>
+        <v>10.4489</v>
       </c>
       <c r="M6" s="1">
         <v>0.25</v>
       </c>
       <c r="N6" s="1">
-        <v>649.6908</v>
+        <v>648.4479</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9350.3092</v>
+        <v>-9351.552100000001</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.021</v>
+        <v>-0.022</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,34 +3251,34 @@
         <v>10.462</v>
       </c>
       <c r="C7" s="1">
-        <v>10.462</v>
+        <v>10.4411</v>
       </c>
       <c r="D7" s="1">
-        <v>10.462</v>
+        <v>10.483</v>
       </c>
       <c r="E7" s="1">
-        <v>4804.217</v>
+        <v>4794.6091</v>
       </c>
       <c r="F7" s="1">
-        <v>1017.9402</v>
+        <v>1015.7825</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>50261.7178</v>
+        <v>50060.9928</v>
       </c>
       <c r="I7" s="1">
-        <v>649.6908</v>
+        <v>648.4479</v>
       </c>
       <c r="J7" s="1">
-        <v>50911.4085</v>
+        <v>50709.4407</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>10.4075</v>
+        <v>10.4284</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -3290,10 +3290,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10649.6908</v>
+        <v>-10648.4479</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0262</v>
+        <v>0.0255</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,34 +3304,34 @@
         <v>10.5775</v>
       </c>
       <c r="C8" s="1">
-        <v>10.5775</v>
+        <v>10.5563</v>
       </c>
       <c r="D8" s="1">
-        <v>10.5775</v>
+        <v>10.5987</v>
       </c>
       <c r="E8" s="1">
-        <v>5822.1572</v>
+        <v>5810.3916</v>
       </c>
       <c r="F8" s="1">
-        <v>945.403</v>
+        <v>943.5119</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>61583.8677</v>
+        <v>61336.2365</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>61583.8677</v>
+        <v>61336.2365</v>
       </c>
       <c r="K8" s="1">
-        <v>60649.6908</v>
+        <v>60648.4479</v>
       </c>
       <c r="L8" s="1">
-        <v>10.417</v>
+        <v>10.4379</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -3346,7 +3346,7 @@
         <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.011</v>
+        <v>0.0103</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,49 +3357,49 @@
         <v>10.7066</v>
       </c>
       <c r="C9" s="1">
-        <v>10.7066</v>
+        <v>10.6852</v>
       </c>
       <c r="D9" s="1">
-        <v>10.7066</v>
+        <v>10.7281</v>
       </c>
       <c r="E9" s="1">
-        <v>6767.5602</v>
+        <v>6753.9035</v>
       </c>
       <c r="F9" s="1">
-        <v>934.0033</v>
+        <v>932.1315</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>72457.5597</v>
+        <v>72166.8098</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>72457.5597</v>
+        <v>72166.8098</v>
       </c>
       <c r="K9" s="1">
-        <v>70649.6908</v>
+        <v>70648.4479</v>
       </c>
       <c r="L9" s="1">
-        <v>10.4395</v>
+        <v>10.4604</v>
       </c>
       <c r="M9" s="1">
         <v>0.2</v>
       </c>
       <c r="N9" s="1">
-        <v>1047.9883</v>
+        <v>1045.8705</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8952.011699999999</v>
+        <v>-8954.129499999999</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0122</v>
+        <v>0.0116</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,34 +3410,34 @@
         <v>11.1511</v>
       </c>
       <c r="C10" s="1">
-        <v>11.1511</v>
+        <v>11.1288</v>
       </c>
       <c r="D10" s="1">
-        <v>11.1511</v>
+        <v>11.1735</v>
       </c>
       <c r="E10" s="1">
-        <v>7701.5635</v>
+        <v>7686.035</v>
       </c>
       <c r="F10" s="1">
-        <v>699.8742999999999</v>
+        <v>732.2376</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>85880.9047</v>
+        <v>85536.3465</v>
       </c>
       <c r="I10" s="1">
-        <v>1047.9883</v>
+        <v>1045.8705</v>
       </c>
       <c r="J10" s="1">
-        <v>86928.893</v>
+        <v>86582.217</v>
       </c>
       <c r="K10" s="1">
-        <v>80649.6908</v>
+        <v>80648.4479</v>
       </c>
       <c r="L10" s="1">
-        <v>10.4719</v>
+        <v>10.4929</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -3449,10 +3449,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-7804.368</v>
+        <v>-8181.6572</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0542</v>
+        <v>0.0537</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,34 +3463,34 @@
         <v>11.5294</v>
       </c>
       <c r="C11" s="1">
-        <v>11.5294</v>
+        <v>11.5063</v>
       </c>
       <c r="D11" s="1">
-        <v>11.5295</v>
+        <v>11.5525</v>
       </c>
       <c r="E11" s="1">
-        <v>8401.4378</v>
+        <v>8418.2727</v>
       </c>
       <c r="F11" s="1">
-        <v>672.9395</v>
+        <v>674.3223</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>96863.53660000001</v>
+        <v>96863.1706</v>
       </c>
       <c r="I11" s="1">
-        <v>3243.6203</v>
+        <v>2864.2133</v>
       </c>
       <c r="J11" s="1">
-        <v>100107.1569</v>
+        <v>99727.3839</v>
       </c>
       <c r="K11" s="1">
-        <v>88454.0588</v>
+        <v>88830.1051</v>
       </c>
       <c r="L11" s="1">
-        <v>10.5284</v>
+        <v>10.5521</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-7758.6561</v>
+        <v>-7790.1085</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0328</v>
+        <v>0.0326</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,49 +3516,49 @@
         <v>10.9136</v>
       </c>
       <c r="C12" s="1">
-        <v>10.9136</v>
+        <v>10.8918</v>
       </c>
       <c r="D12" s="1">
-        <v>10.9136</v>
+        <v>10.9355</v>
       </c>
       <c r="E12" s="1">
-        <v>9074.3773</v>
+        <v>9092.594999999999</v>
       </c>
       <c r="F12" s="1">
-        <v>1418.8686</v>
+        <v>1378.4559</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>99034.12390000001</v>
+        <v>99034.7258</v>
       </c>
       <c r="I12" s="1">
-        <v>5484.9642</v>
+        <v>5074.1048</v>
       </c>
       <c r="J12" s="1">
-        <v>104519.0881</v>
+        <v>104108.8306</v>
       </c>
       <c r="K12" s="1">
-        <v>96212.71490000001</v>
+        <v>96620.2136</v>
       </c>
       <c r="L12" s="1">
-        <v>10.6027</v>
+        <v>10.6263</v>
       </c>
       <c r="M12" s="1">
         <v>0.5</v>
       </c>
       <c r="N12" s="1">
-        <v>3780.647</v>
+        <v>3788.2227</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11704.3172</v>
+        <v>-11285.8821</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0508</v>
+        <v>-0.0512</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,34 +3569,34 @@
         <v>11.2587</v>
       </c>
       <c r="C13" s="1">
-        <v>11.2586</v>
+        <v>11.2362</v>
       </c>
       <c r="D13" s="1">
-        <v>11.2587</v>
+        <v>11.2813</v>
       </c>
       <c r="E13" s="1">
-        <v>10493.2459</v>
+        <v>10471.0509</v>
       </c>
       <c r="F13" s="1">
-        <v>771.4789</v>
+        <v>816.1307</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>118139.2579</v>
+        <v>117654.822</v>
       </c>
       <c r="I13" s="1">
-        <v>3780.647</v>
+        <v>3788.2227</v>
       </c>
       <c r="J13" s="1">
-        <v>121919.9049</v>
+        <v>121443.0447</v>
       </c>
       <c r="K13" s="1">
-        <v>111697.6791</v>
+        <v>111694.3184</v>
       </c>
       <c r="L13" s="1">
-        <v>10.6447</v>
+        <v>10.667</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -3608,10 +3608,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-8685.849399999999</v>
+        <v>-9207.015600000001</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0646</v>
+        <v>0.0643</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,34 +3622,34 @@
         <v>11.6434</v>
       </c>
       <c r="C14" s="1">
-        <v>11.6434</v>
+        <v>11.6201</v>
       </c>
       <c r="D14" s="1">
-        <v>11.6434</v>
+        <v>11.6667</v>
       </c>
       <c r="E14" s="1">
-        <v>11264.7248</v>
+        <v>11287.1816</v>
       </c>
       <c r="F14" s="1">
-        <v>-11264.7248</v>
+        <v>-11287.1816</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>131159.6962</v>
+        <v>131158.1792</v>
       </c>
       <c r="I14" s="1">
-        <v>5094.7976</v>
+        <v>4581.2071</v>
       </c>
       <c r="J14" s="1">
-        <v>136254.4938</v>
+        <v>135739.3862</v>
       </c>
       <c r="K14" s="1">
-        <v>120383.5285</v>
+        <v>120901.334</v>
       </c>
       <c r="L14" s="1">
-        <v>10.6868</v>
+        <v>10.7114</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>131159.6962</v>
+        <v>131158.1792</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0329</v>
+        <v>0.0327</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>10.4058</v>
       </c>
       <c r="C2" s="1">
-        <v>10.4058</v>
+        <v>10.385</v>
       </c>
       <c r="D2" s="1">
-        <v>10.4058</v>
+        <v>10.4267</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>961.0025000000001</v>
+        <v>959.0762</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>10.2688</v>
       </c>
       <c r="C3" s="1">
-        <v>10.2688</v>
+        <v>10.2483</v>
       </c>
       <c r="D3" s="1">
-        <v>10.2688</v>
+        <v>10.2894</v>
       </c>
       <c r="E3" s="1">
-        <v>961.0025000000001</v>
+        <v>959.0762</v>
       </c>
       <c r="F3" s="1">
-        <v>973.8236000000001</v>
+        <v>971.874</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>9868.342699999999</v>
+        <v>9828.900799999999</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9868.342699999999</v>
+        <v>9828.900799999999</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.4058</v>
+        <v>10.4267</v>
       </c>
       <c r="M3" s="1">
         <v>0.1</v>
@@ -3849,7 +3849,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0132</v>
+        <v>-0.0171</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,34 +3860,34 @@
         <v>10.4938</v>
       </c>
       <c r="C4" s="1">
-        <v>10.4938</v>
+        <v>10.4728</v>
       </c>
       <c r="D4" s="1">
-        <v>10.4938</v>
+        <v>10.5148</v>
       </c>
       <c r="E4" s="1">
-        <v>1934.8261</v>
+        <v>1930.9502</v>
       </c>
       <c r="F4" s="1">
-        <v>952.9435999999999</v>
+        <v>951.0404</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>20303.6785</v>
+        <v>20222.4551</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20303.6785</v>
+        <v>20222.4551</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.3368</v>
+        <v>10.3576</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3902,7 +3902,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0219</v>
+        <v>0.0198</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,34 +3913,34 @@
         <v>10.5481</v>
       </c>
       <c r="C5" s="1">
-        <v>10.5481</v>
+        <v>10.527</v>
       </c>
       <c r="D5" s="1">
-        <v>10.5481</v>
+        <v>10.5692</v>
       </c>
       <c r="E5" s="1">
-        <v>2887.7698</v>
+        <v>2881.9906</v>
       </c>
       <c r="F5" s="1">
-        <v>948.038</v>
+        <v>946.1454</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>30460.4844</v>
+        <v>30338.7153</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>30460.4844</v>
+        <v>30338.7153</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.3886</v>
+        <v>10.4095</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3955,7 +3955,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0052</v>
+        <v>0.0038</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,49 +3966,49 @@
         <v>10.3262</v>
       </c>
       <c r="C6" s="1">
-        <v>10.3262</v>
+        <v>10.3055</v>
       </c>
       <c r="D6" s="1">
-        <v>10.3262</v>
+        <v>10.3469</v>
       </c>
       <c r="E6" s="1">
-        <v>3835.8078</v>
+        <v>3828.136</v>
       </c>
       <c r="F6" s="1">
-        <v>968.4105</v>
+        <v>966.473</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>39609.3187</v>
+        <v>39450.8558</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>39609.3187</v>
+        <v>39450.8558</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>10.4281</v>
+        <v>10.4489</v>
       </c>
       <c r="M6" s="1">
         <v>0.25</v>
       </c>
       <c r="N6" s="1">
-        <v>649.7482</v>
+        <v>648.4479</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9350.2518</v>
+        <v>-9351.552100000001</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.021</v>
+        <v>-0.022</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,34 +4019,34 @@
         <v>10.462</v>
       </c>
       <c r="C7" s="1">
-        <v>10.462</v>
+        <v>10.4411</v>
       </c>
       <c r="D7" s="1">
-        <v>10.462</v>
+        <v>10.483</v>
       </c>
       <c r="E7" s="1">
-        <v>4804.2183</v>
+        <v>4794.6091</v>
       </c>
       <c r="F7" s="1">
-        <v>1017.9457</v>
+        <v>1015.7825</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>50261.7315</v>
+        <v>50060.9928</v>
       </c>
       <c r="I7" s="1">
-        <v>649.7482</v>
+        <v>648.4479</v>
       </c>
       <c r="J7" s="1">
-        <v>50911.4797</v>
+        <v>50709.4407</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>10.4075</v>
+        <v>10.4284</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -4058,10 +4058,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10649.7482</v>
+        <v>-10648.4479</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0262</v>
+        <v>0.0255</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,34 +4072,34 @@
         <v>10.5775</v>
       </c>
       <c r="C8" s="1">
-        <v>10.5775</v>
+        <v>10.5563</v>
       </c>
       <c r="D8" s="1">
-        <v>10.5775</v>
+        <v>10.5987</v>
       </c>
       <c r="E8" s="1">
-        <v>5822.164</v>
+        <v>5810.3916</v>
       </c>
       <c r="F8" s="1">
-        <v>945.403</v>
+        <v>943.5119</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>61583.9397</v>
+        <v>61336.2365</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>61583.9397</v>
+        <v>61336.2365</v>
       </c>
       <c r="K8" s="1">
-        <v>60649.7482</v>
+        <v>60648.4479</v>
       </c>
       <c r="L8" s="1">
-        <v>10.417</v>
+        <v>10.4379</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -4114,7 +4114,7 @@
         <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.011</v>
+        <v>0.0103</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,49 +4125,49 @@
         <v>10.7066</v>
       </c>
       <c r="C9" s="1">
-        <v>10.7066</v>
+        <v>10.6852</v>
       </c>
       <c r="D9" s="1">
-        <v>10.7066</v>
+        <v>10.7281</v>
       </c>
       <c r="E9" s="1">
-        <v>6767.567</v>
+        <v>6753.9035</v>
       </c>
       <c r="F9" s="1">
-        <v>934.0033</v>
+        <v>932.1315</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>72457.6326</v>
+        <v>72166.8098</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>72457.6326</v>
+        <v>72166.8098</v>
       </c>
       <c r="K9" s="1">
-        <v>70649.7482</v>
+        <v>70648.4479</v>
       </c>
       <c r="L9" s="1">
-        <v>10.4395</v>
+        <v>10.4604</v>
       </c>
       <c r="M9" s="1">
         <v>0.2</v>
       </c>
       <c r="N9" s="1">
-        <v>1047.9895</v>
+        <v>1045.8705</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8952.0105</v>
+        <v>-8954.129499999999</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0122</v>
+        <v>0.0116</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,34 +4178,34 @@
         <v>11.1511</v>
       </c>
       <c r="C10" s="1">
-        <v>11.1511</v>
+        <v>11.1288</v>
       </c>
       <c r="D10" s="1">
-        <v>11.1511</v>
+        <v>11.1735</v>
       </c>
       <c r="E10" s="1">
-        <v>7701.5703</v>
+        <v>7686.035</v>
       </c>
       <c r="F10" s="1">
-        <v>870.9756</v>
+        <v>903.6887</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>85880.9806</v>
+        <v>85536.3465</v>
       </c>
       <c r="I10" s="1">
-        <v>1047.9895</v>
+        <v>1045.8705</v>
       </c>
       <c r="J10" s="1">
-        <v>86928.97010000001</v>
+        <v>86582.217</v>
       </c>
       <c r="K10" s="1">
-        <v>80649.7482</v>
+        <v>80648.4479</v>
       </c>
       <c r="L10" s="1">
-        <v>10.4719</v>
+        <v>10.4929</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -4217,10 +4217,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-9712.3364</v>
+        <v>-10097.3653</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0542</v>
+        <v>0.0537</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,34 +4231,34 @@
         <v>11.5294</v>
       </c>
       <c r="C11" s="1">
-        <v>11.5294</v>
+        <v>11.5063</v>
       </c>
       <c r="D11" s="1">
-        <v>11.5295</v>
+        <v>11.5525</v>
       </c>
       <c r="E11" s="1">
-        <v>8572.545899999999</v>
+        <v>8589.7237</v>
       </c>
       <c r="F11" s="1">
-        <v>710.4364</v>
+        <v>711.8951</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>98836.31110000001</v>
+        <v>98835.9376</v>
       </c>
       <c r="I11" s="1">
-        <v>1335.6531</v>
+        <v>948.5051999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>100171.9642</v>
+        <v>99784.4428</v>
       </c>
       <c r="K11" s="1">
-        <v>90362.0846</v>
+        <v>90745.8132</v>
       </c>
       <c r="L11" s="1">
-        <v>10.5409</v>
+        <v>10.5645</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -4270,10 +4270,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-8190.9767</v>
+        <v>-8224.168600000001</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0335</v>
+        <v>0.0332</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,49 +4284,49 @@
         <v>10.9136</v>
       </c>
       <c r="C12" s="1">
-        <v>10.9136</v>
+        <v>10.8918</v>
       </c>
       <c r="D12" s="1">
-        <v>10.9136</v>
+        <v>10.9355</v>
       </c>
       <c r="E12" s="1">
-        <v>9282.9823</v>
+        <v>9301.6188</v>
       </c>
       <c r="F12" s="1">
-        <v>1204.4308</v>
+        <v>1163.5807</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>101310.7562</v>
+        <v>101311.3719</v>
       </c>
       <c r="I12" s="1">
-        <v>3144.6765</v>
+        <v>2724.3365</v>
       </c>
       <c r="J12" s="1">
-        <v>104455.4326</v>
+        <v>104035.7085</v>
       </c>
       <c r="K12" s="1">
-        <v>98553.0612</v>
+        <v>98969.98179999999</v>
       </c>
       <c r="L12" s="1">
-        <v>10.6165</v>
+        <v>10.6401</v>
       </c>
       <c r="M12" s="1">
         <v>0.5</v>
       </c>
       <c r="N12" s="1">
-        <v>3857.6457</v>
+        <v>3865.3757</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-9287.0308</v>
+        <v>-8858.9609</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0519</v>
+        <v>-0.0524</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,34 +4337,34 @@
         <v>11.2587</v>
       </c>
       <c r="C13" s="1">
-        <v>11.2586</v>
+        <v>11.2362</v>
       </c>
       <c r="D13" s="1">
-        <v>11.2587</v>
+        <v>11.2813</v>
       </c>
       <c r="E13" s="1">
-        <v>10487.4132</v>
+        <v>10465.1995</v>
       </c>
       <c r="F13" s="1">
-        <v>1095.9199</v>
+        <v>1141.2256</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>118073.5902</v>
+        <v>117589.0747</v>
       </c>
       <c r="I13" s="1">
-        <v>3857.6457</v>
+        <v>3865.3757</v>
       </c>
       <c r="J13" s="1">
-        <v>121931.2359</v>
+        <v>121454.4504</v>
       </c>
       <c r="K13" s="1">
-        <v>111697.7377</v>
+        <v>111694.3184</v>
       </c>
       <c r="L13" s="1">
-        <v>10.6506</v>
+        <v>10.6729</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -4376,10 +4376,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-12338.6337</v>
+        <v>-12874.5089</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0653</v>
+        <v>0.06510000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,34 +4390,34 @@
         <v>11.6434</v>
       </c>
       <c r="C14" s="1">
-        <v>11.6434</v>
+        <v>11.6201</v>
       </c>
       <c r="D14" s="1">
-        <v>11.6434</v>
+        <v>11.6667</v>
       </c>
       <c r="E14" s="1">
-        <v>11583.3331</v>
+        <v>11606.4252</v>
       </c>
       <c r="F14" s="1">
-        <v>-11583.3331</v>
+        <v>-11606.4252</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>134869.3809</v>
+        <v>134867.8209</v>
       </c>
       <c r="I14" s="1">
-        <v>1519.012</v>
+        <v>990.8668</v>
       </c>
       <c r="J14" s="1">
-        <v>136388.3928</v>
+        <v>135858.6877</v>
       </c>
       <c r="K14" s="1">
-        <v>124036.3714</v>
+        <v>124568.8273</v>
       </c>
       <c r="L14" s="1">
-        <v>10.7082</v>
+        <v>10.7327</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>134869.3809</v>
+        <v>134867.8209</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0338</v>
+        <v>0.0335</v>
       </c>
     </row>
   </sheetData>
@@ -4451,10 +4451,10 @@
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>10.7279</v>
+        <v>10.7494</v>
       </c>
       <c r="D3" s="1">
-        <v>10.6678</v>
+        <v>10.6895</v>
       </c>
       <c r="E3" s="1">
-        <v>10.6745</v>
+        <v>10.6963</v>
       </c>
       <c r="F3" s="1">
-        <v>10.6868</v>
+        <v>10.7114</v>
       </c>
       <c r="G3" s="1">
-        <v>10.7082</v>
+        <v>10.7327</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>0.1171</v>
       </c>
       <c r="C4" s="3">
-        <v>0.1761</v>
+        <v>0.1637</v>
       </c>
       <c r="D4" s="3">
-        <v>0.171</v>
+        <v>0.1596</v>
       </c>
       <c r="E4" s="3">
-        <v>0.1739</v>
+        <v>0.1623</v>
       </c>
       <c r="F4" s="3">
-        <v>0.1761</v>
+        <v>0.1641</v>
       </c>
       <c r="G4" s="3">
-        <v>0.1773</v>
+        <v>0.1651</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.0912</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1085</v>
+        <v>0.1096</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1029</v>
+        <v>0.1043</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1048</v>
+        <v>0.1062</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1065</v>
+        <v>0.1077</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1078</v>
+        <v>0.109</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>1.0611</v>
       </c>
       <c r="C6" s="4">
-        <v>1.4354</v>
+        <v>1.3084</v>
       </c>
       <c r="D6" s="4">
-        <v>1.4637</v>
+        <v>1.3354</v>
       </c>
       <c r="E6" s="4">
-        <v>1.4649</v>
+        <v>1.3372</v>
       </c>
       <c r="F6" s="4">
-        <v>1.4627</v>
+        <v>1.3343</v>
       </c>
       <c r="G6" s="4">
-        <v>1.4558</v>
+        <v>1.3276</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.2625</v>
+        <v>0.2533</v>
       </c>
       <c r="D7" s="3">
-        <v>0.265</v>
+        <v>0.2562</v>
       </c>
       <c r="E7" s="3">
-        <v>0.2655</v>
+        <v>0.2566</v>
       </c>
       <c r="F7" s="3">
-        <v>0.2657</v>
+        <v>0.2566</v>
       </c>
       <c r="G7" s="3">
-        <v>0.2653</v>
+        <v>0.256</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>5555.5271</v>
+        <v>5544.3537</v>
       </c>
       <c r="D8" s="1">
-        <v>5307.473</v>
+        <v>5318.1069</v>
       </c>
       <c r="E8" s="1">
-        <v>5397.1772</v>
+        <v>5406.4557</v>
       </c>
       <c r="F8" s="1">
-        <v>5478.3261</v>
+        <v>5482.5411</v>
       </c>
       <c r="G8" s="1">
-        <v>5555.3834</v>
+        <v>5559.694</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P95_KFSDIV.xlsx
+++ b/output/1Y_P95_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -721,7 +724,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.4058</v>
@@ -765,7 +768,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.2688</v>
@@ -815,7 +818,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.4938</v>
@@ -865,7 +868,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.5481</v>
@@ -915,7 +918,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.3262</v>
@@ -965,7 +968,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.462</v>
@@ -1015,7 +1018,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.5775</v>
@@ -1065,7 +1068,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.7066</v>
@@ -1115,7 +1118,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>11.1511</v>
@@ -1165,7 +1168,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>11.5294</v>
@@ -1215,7 +1218,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.9136</v>
@@ -1265,7 +1268,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>11.2587</v>
@@ -1315,7 +1318,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>11.6434</v>
@@ -1450,7 +1453,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.4058</v>
@@ -1497,7 +1500,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.2688</v>
@@ -1550,7 +1553,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.4938</v>
@@ -1603,7 +1606,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.5481</v>
@@ -1656,7 +1659,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.3262</v>
@@ -1709,7 +1712,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.462</v>
@@ -1762,7 +1765,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.5775</v>
@@ -1815,7 +1818,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.7066</v>
@@ -1868,7 +1871,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>11.1511</v>
@@ -1921,7 +1924,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>11.5294</v>
@@ -1974,7 +1977,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.9136</v>
@@ -2027,7 +2030,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>11.2587</v>
@@ -2080,7 +2083,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>11.6434</v>
@@ -2218,7 +2221,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.4058</v>
@@ -2265,7 +2268,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.2688</v>
@@ -2318,7 +2321,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.4938</v>
@@ -2371,7 +2374,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.5481</v>
@@ -2424,7 +2427,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.3262</v>
@@ -2477,7 +2480,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.462</v>
@@ -2530,7 +2533,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.5775</v>
@@ -2583,7 +2586,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.7066</v>
@@ -2636,7 +2639,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>11.1511</v>
@@ -2689,7 +2692,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>11.5294</v>
@@ -2742,7 +2745,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.9136</v>
@@ -2795,7 +2798,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>11.2587</v>
@@ -2848,7 +2851,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>11.6434</v>
@@ -2986,7 +2989,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.4058</v>
@@ -3033,7 +3036,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.2688</v>
@@ -3086,7 +3089,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.4938</v>
@@ -3139,7 +3142,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.5481</v>
@@ -3192,7 +3195,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.3262</v>
@@ -3245,7 +3248,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.462</v>
@@ -3298,7 +3301,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.5775</v>
@@ -3351,7 +3354,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.7066</v>
@@ -3404,7 +3407,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>11.1511</v>
@@ -3457,7 +3460,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>11.5294</v>
@@ -3510,7 +3513,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.9136</v>
@@ -3563,7 +3566,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>11.2587</v>
@@ -3616,7 +3619,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>11.6434</v>
@@ -3754,7 +3757,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.4058</v>
@@ -3801,7 +3804,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.2688</v>
@@ -3854,7 +3857,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.4938</v>
@@ -3907,7 +3910,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.5481</v>
@@ -3960,7 +3963,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.3262</v>
@@ -4013,7 +4016,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.462</v>
@@ -4066,7 +4069,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.5775</v>
@@ -4119,7 +4122,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.7066</v>
@@ -4172,7 +4175,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>11.1511</v>
@@ -4225,7 +4228,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>11.5294</v>
@@ -4278,7 +4281,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.9136</v>
@@ -4331,7 +4334,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>11.2587</v>
@@ -4384,7 +4387,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>11.6434</v>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>6356.0903</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.0807</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.1912</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.1608</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.1298</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.0976</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
